--- a/1150080162_Trần Thị Cẩm Tú_Tester Lap3_giá trị biên.xlsx
+++ b/1150080162_Trần Thị Cẩm Tú_Tester Lap3_giá trị biên.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc84efd737fd29ab/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF165B8E-CAD6-450D-8CBD-1667C6DC36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{EF165B8E-CAD6-450D-8CBD-1667C6DC36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8968BE-E304-4E63-8211-BD5FEF9AADA0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{5415A4CB-B4F0-437B-832C-9DDD434A199D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{5415A4CB-B4F0-437B-832C-9DDD434A199D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>Mục</t>
   </si>
@@ -234,6 +235,57 @@
   </si>
   <si>
     <t>TC07</t>
+  </si>
+  <si>
+    <t>X là số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>0 ≤ X ≤ 1000</t>
+  </si>
+  <si>
+    <t>X = 1</t>
+  </si>
+  <si>
+    <t>X = 2</t>
+  </si>
+  <si>
+    <t>X = 500</t>
+  </si>
+  <si>
+    <t>X = 999</t>
+  </si>
+  <si>
+    <t>X = 1000</t>
+  </si>
+  <si>
+    <t>X = 1001</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – số lượng &lt; 1</t>
+  </si>
+  <si>
+    <t>Hợp lệ – số lượng được chấp nhận</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – số lượng &gt; 1000</t>
+  </si>
+  <si>
+    <t>Kiểm Thử Trường Nhập Số Lượng Sản Phẩm  bằng kỹ thuật giá trị biên</t>
+  </si>
+  <si>
+    <t>Mở màn hình có trường nhập số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Con trỏ đặt tại ô nhập số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nút lưu/ xác nhận </t>
+  </si>
+  <si>
+    <t>x = 2</t>
+  </si>
+  <si>
+    <t>X= 1001</t>
   </si>
 </sst>
 </file>
@@ -804,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091E8B2-1B7E-40D3-8DF0-AE21AE3A77B8}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,4 +1466,620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622CEE9B-FE1F-4D91-94F3-683A4C88F7A5}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16">
+        <v>500</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="16">
+        <v>999</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1001</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="31"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="41">
+        <v>46174</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="12">
+        <v>5</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="12">
+        <v>6</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="6">
+        <v>7</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="42"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="34"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1150080162_Trần Thị Cẩm Tú_Tester Lap3_giá trị biên.xlsx
+++ b/1150080162_Trần Thị Cẩm Tú_Tester Lap3_giá trị biên.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc84efd737fd29ab/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{EF165B8E-CAD6-450D-8CBD-1667C6DC36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8968BE-E304-4E63-8211-BD5FEF9AADA0}"/>
+  <xr:revisionPtr revIDLastSave="783" documentId="8_{EF165B8E-CAD6-450D-8CBD-1667C6DC36E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E02FA8-6365-42F2-9357-6D2841B65189}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{5415A4CB-B4F0-437B-832C-9DDD434A199D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" firstSheet="1" activeTab="7" xr2:uid="{5415A4CB-B4F0-437B-832C-9DDD434A199D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bài 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bài 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bài 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Bài 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Bài 6" sheetId="7" r:id="rId6"/>
+    <sheet name="Bài 7" sheetId="8" r:id="rId7"/>
+    <sheet name="Bài 8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="288">
   <si>
     <t>Mục</t>
   </si>
@@ -286,13 +292,670 @@
   </si>
   <si>
     <t>X= 1001</t>
+  </si>
+  <si>
+    <t>UserName hợp lệ</t>
+  </si>
+  <si>
+    <t>Password không hợp lệ</t>
+  </si>
+  <si>
+    <t>1 ≤ U≤ 255</t>
+  </si>
+  <si>
+    <t>1 ≤ P ≤ 255</t>
+  </si>
+  <si>
+    <t>U là Username</t>
+  </si>
+  <si>
+    <t>P là password</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng đăng nhập:</t>
+  </si>
+  <si>
+    <t>Mở màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Con trỏ nhập được Username/Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nút"Đăng nhập" </t>
+  </si>
+  <si>
+    <t>Test Data cho Username</t>
+  </si>
+  <si>
+    <t>U="" , P="pass"</t>
+  </si>
+  <si>
+    <t>U="a" , P="pass"</t>
+  </si>
+  <si>
+    <t>U="ab" , P="pass"</t>
+  </si>
+  <si>
+    <t>U="a"*128 , P="pass"</t>
+  </si>
+  <si>
+    <t>U="a"*254 , P="pass"</t>
+  </si>
+  <si>
+    <t>U="a"*255 , P="pass"</t>
+  </si>
+  <si>
+    <t>U="a"*256 , P="pass"</t>
+  </si>
+  <si>
+    <t>3.1 Testcase cho Username</t>
+  </si>
+  <si>
+    <t>Không hợp lệ (U length 0)</t>
+  </si>
+  <si>
+    <t>Hợp lệ (U length 1)</t>
+  </si>
+  <si>
+    <t>Hợp lệ (U length 2)</t>
+  </si>
+  <si>
+    <t>Không hợp lệ (U &gt; 255)</t>
+  </si>
+  <si>
+    <t>Test Data cho Password</t>
+  </si>
+  <si>
+    <t>U="user" , P=""</t>
+  </si>
+  <si>
+    <t>U="user" , P="p"</t>
+  </si>
+  <si>
+    <t>U="user" , P="pp"</t>
+  </si>
+  <si>
+    <t>U="user" , P="p"*254</t>
+  </si>
+  <si>
+    <t>U="user" , P="p"*255</t>
+  </si>
+  <si>
+    <t>U="user" , P="p"*128</t>
+  </si>
+  <si>
+    <t>U="user" , P="p"*256</t>
+  </si>
+  <si>
+    <t>3.1 Testcase cho Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp lệ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           3. Thiết kế Testcase</t>
+  </si>
+  <si>
+    <t>1 ≤ X ≤ 12</t>
+  </si>
+  <si>
+    <t>X là tháng trong năm</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Kiểm Thử textbox nhập tháng (1-12) bằng ký thuật giá trị biên</t>
+  </si>
+  <si>
+    <t>Mở màn hình có textbox nhập tháng</t>
+  </si>
+  <si>
+    <t>Con trỏ dặt tại ô nhập tháng</t>
+  </si>
+  <si>
+    <t>X = 13</t>
+  </si>
+  <si>
+    <t>X = 12</t>
+  </si>
+  <si>
+    <t>X = 11</t>
+  </si>
+  <si>
+    <t>X = 6</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – tháng &lt; 1</t>
+  </si>
+  <si>
+    <t>Hợp lệ – tháng được chấp nhận</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – tháng &gt; 12</t>
+  </si>
+  <si>
+    <t>1. Xác định phạm vi Username</t>
+  </si>
+  <si>
+    <t>1.1  Xác định phạm vi Password</t>
+  </si>
+  <si>
+    <t>6 ≤ U ≤ 20</t>
+  </si>
+  <si>
+    <t>U là số ký tự Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị </t>
+  </si>
+  <si>
+    <t>U min</t>
+  </si>
+  <si>
+    <t>U max</t>
+  </si>
+  <si>
+    <t>6 ≤ P ≤ 25</t>
+  </si>
+  <si>
+    <t>P là số ký tự của password</t>
+  </si>
+  <si>
+    <t>P min</t>
+  </si>
+  <si>
+    <t>P max</t>
+  </si>
+  <si>
+    <t>số ký tự</t>
+  </si>
+  <si>
+    <t>Umin − 1</t>
+  </si>
+  <si>
+    <t>Umin</t>
+  </si>
+  <si>
+    <t>Umin + 1</t>
+  </si>
+  <si>
+    <t>Unom (giữa)</t>
+  </si>
+  <si>
+    <t>Umax -1</t>
+  </si>
+  <si>
+    <t>Umax</t>
+  </si>
+  <si>
+    <t>Umax + 1</t>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử Username</t>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử Password</t>
+  </si>
+  <si>
+    <t>Pmin − 1</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>Pnom (giữa)</t>
+  </si>
+  <si>
+    <t>Pmin + 1</t>
+  </si>
+  <si>
+    <t>Pmax -1</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>Pmax + 1</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Kiểm Thử chức năng đăng nhập bằng ký thuật giá trị biên</t>
+  </si>
+  <si>
+    <t>Con trỏ dặt tại ôUsername</t>
+  </si>
+  <si>
+    <t>Có nút đăng nhập</t>
+  </si>
+  <si>
+    <t>U = 5 ký tự, P = 10 ký tự</t>
+  </si>
+  <si>
+    <t>U = 6 ký tự, P = 10 ký tự</t>
+  </si>
+  <si>
+    <t>U = 20 ký tự, P = 10 ký tự</t>
+  </si>
+  <si>
+    <t>U = 21 ký tự, P = 10 ký tự</t>
+  </si>
+  <si>
+    <t>U = 10 ký tự, P = 5 ký tự</t>
+  </si>
+  <si>
+    <t>U = 10 ký tự, P = 6 ký tự</t>
+  </si>
+  <si>
+    <t>U = 10 ký tự, P = 25 ký tự</t>
+  </si>
+  <si>
+    <t>U=5, P=10</t>
+  </si>
+  <si>
+    <t>U=6, P=10</t>
+  </si>
+  <si>
+    <t>U=20, P=10</t>
+  </si>
+  <si>
+    <t>U=21, P=10</t>
+  </si>
+  <si>
+    <t>U=10, P=5</t>
+  </si>
+  <si>
+    <t>U=10, P=6</t>
+  </si>
+  <si>
+    <t>U=10, P=25</t>
+  </si>
+  <si>
+    <t>U = 10 ký tự, P = 26 ký tự</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>U=10, P=26</t>
+  </si>
+  <si>
+    <t>Không hợp lê - Password &gt;25</t>
+  </si>
+  <si>
+    <t>Hợp lệ – cho phép đăng nhập</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – Password &lt; 6</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – Username &gt; 20</t>
+  </si>
+  <si>
+    <t>Không hợp lệ – Username &lt; 6</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Nhập sai 5 lần</t>
+  </si>
+  <si>
+    <t>Chưa khóa</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Nhập sai lần thứ 6</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Đăng nhập trong 15 phút</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Đăng nhập sau 15 phút</t>
+  </si>
+  <si>
+    <t>Tài khoản bị khóa</t>
+  </si>
+  <si>
+    <t>Thông báo bị khóa</t>
+  </si>
+  <si>
+    <t>Cho phép đăng nhập lại</t>
+  </si>
+  <si>
+    <t>0 ≤ X ≤ 120</t>
+  </si>
+  <si>
+    <t>X là số tuổi</t>
+  </si>
+  <si>
+    <t>Quy tắc</t>
+  </si>
+  <si>
+    <t>Vùng giá trị</t>
+  </si>
+  <si>
+    <t>Vùng sai (Invalid)</t>
+  </si>
+  <si>
+    <t>X &lt; 0 or X &gt; 120</t>
+  </si>
+  <si>
+    <t>Vùng đúng 1</t>
+  </si>
+  <si>
+    <t>Vùng đúng 2</t>
+  </si>
+  <si>
+    <t>Vùng đúng 3</t>
+  </si>
+  <si>
+    <t>Vùng đúng 4</t>
+  </si>
+  <si>
+    <t>0 ≤ X ≤ 5</t>
+  </si>
+  <si>
+    <t>6 ≤ X ≤ 19</t>
+  </si>
+  <si>
+    <t>20 ≤ X ≤ 60</t>
+  </si>
+  <si>
+    <t>61 ≤ X ≤ 120</t>
+  </si>
+  <si>
+    <t>0đ</t>
+  </si>
+  <si>
+    <t>80.000đ</t>
+  </si>
+  <si>
+    <t>100.000đ</t>
+  </si>
+  <si>
+    <t>Phân vùng</t>
+  </si>
+  <si>
+    <t>X = 5</t>
+  </si>
+  <si>
+    <t>X = 19</t>
+  </si>
+  <si>
+    <t>X = 20</t>
+  </si>
+  <si>
+    <t>X = 60</t>
+  </si>
+  <si>
+    <t>X = 61</t>
+  </si>
+  <si>
+    <t>X = 120</t>
+  </si>
+  <si>
+    <t>X = 121</t>
+  </si>
+  <si>
+    <t>X = 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không hợp lệ – tuổi &lt; 0 </t>
+  </si>
+  <si>
+    <t>Hợp lệ – giá vé 0đ</t>
+  </si>
+  <si>
+    <t>Hợp lệ – giá vé 80.000đ</t>
+  </si>
+  <si>
+    <t>Hợp lệ – giá vé 100.000đ</t>
+  </si>
+  <si>
+    <t>Không hợp lệ - tuổi &gt;120</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>kiểm tra giá vé xe buýt</t>
+  </si>
+  <si>
+    <t>Mở màn hình nhập tuổi để kiểm tra gái vé</t>
+  </si>
+  <si>
+    <t>Con trỏ dặt tại ô nhập tuổi</t>
+  </si>
+  <si>
+    <t>Có kiểm tra /  xác nhận để hiện giá vé</t>
+  </si>
+  <si>
+    <t>20 ≤ X ≤ 30</t>
+  </si>
+  <si>
+    <t>X là số ngày</t>
+  </si>
+  <si>
+    <t>X &lt; 20 or X &gt; 30</t>
+  </si>
+  <si>
+    <t>20 ≤ X ≤ 25</t>
+  </si>
+  <si>
+    <t>26 ≤ X ≤ 30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">coupon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">coupon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70%</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử 20 và 30</t>
+  </si>
+  <si>
+    <t>vaild ( 50%)</t>
+  </si>
+  <si>
+    <t>Vaild (50%)</t>
+  </si>
+  <si>
+    <t>Vaild (70%)</t>
+  </si>
+  <si>
+    <t>vaild (70%)</t>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử 25 - 26</t>
+  </si>
+  <si>
+    <t>25 (ngay trước đổi)</t>
+  </si>
+  <si>
+    <t>Invalid (50%)</t>
+  </si>
+  <si>
+    <t>26 (đúng điểm đổi)</t>
+  </si>
+  <si>
+    <t>vaild ( 70%)</t>
+  </si>
+  <si>
+    <t>X = 21</t>
+  </si>
+  <si>
+    <t>X = 25</t>
+  </si>
+  <si>
+    <t>X = 26</t>
+  </si>
+  <si>
+    <t>X = 29</t>
+  </si>
+  <si>
+    <t>X = 31</t>
+  </si>
+  <si>
+    <t>Mở trnag sale có ô nhập ngày</t>
+  </si>
+  <si>
+    <t>Con trỏ nằm ở textbox " Nhập ngày"</t>
+  </si>
+  <si>
+    <t>Có nút OK để hiện thị coupon/ lỗi</t>
+  </si>
+  <si>
+    <t>Lỗi – ngoài khoảng 20–30</t>
+  </si>
+  <si>
+    <t>Nhận coupon 50%</t>
+  </si>
+  <si>
+    <t>Nhận coupon 70%</t>
+  </si>
+  <si>
+    <t>3 ≤ U ≤ 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> u = 0 (Trống), U &gt;30 </t>
+  </si>
+  <si>
+    <t>6 ≤ P ≤ 10</t>
+  </si>
+  <si>
+    <t>P = 0 (Trống), P &lt; 6, P &gt; 10</t>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử Username (3 -30)</t>
+  </si>
+  <si>
+    <t>Invaild</t>
+  </si>
+  <si>
+    <t>Rỗng</t>
+  </si>
+  <si>
+    <t>2. Giá trị biên cần kiểm thử Password ( 6 -10)</t>
+  </si>
+  <si>
+    <t>Con trỏ dặt tại ô Username</t>
+  </si>
+  <si>
+    <t>Có nút đăng nhập để submit</t>
+  </si>
+  <si>
+    <t>U="" , P="pass12"</t>
+  </si>
+  <si>
+    <t>U="ab" , P="pass12"</t>
+  </si>
+  <si>
+    <t>U="abc" , P="pass12"</t>
+  </si>
+  <si>
+    <t>U="a"*31 , P="pass12"</t>
+  </si>
+  <si>
+    <t>U="user123" , P=""</t>
+  </si>
+  <si>
+    <t>U="user123" , P="abcde"</t>
+  </si>
+  <si>
+    <t>U="user123" , P="abcdef"</t>
+  </si>
+  <si>
+    <t>U="user123" , P="a"*11</t>
+  </si>
+  <si>
+    <t>U="user123" , P="pass12"</t>
+  </si>
+  <si>
+    <t>U="user123" , P="wrong12"</t>
+  </si>
+  <si>
+    <t>U="wronguser" , P="pass12"</t>
+  </si>
+  <si>
+    <t>Username hoặc Password đã nhập sai</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công → chuyển vào màn hình</t>
+  </si>
+  <si>
+    <t>Độ dài Password phải nằm trong khoảng 6 đến 10 ký tự</t>
+  </si>
+  <si>
+    <t>Format OK → nếu sai tài khoản → Username hoặc Password đã nhập sai (trừ khi abcdef đúng mật khẩu hệ thống)</t>
+  </si>
+  <si>
+    <t>Password không được để trống</t>
+  </si>
+  <si>
+    <t>Độ dài Username phải nằm trong khoảng 3 đến 30 ký tự</t>
+  </si>
+  <si>
+    <t>Username không được để trống</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Format OK → nếu không khớp tài khoản → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username hoặc Password đã nhập sai</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +971,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,12 +1194,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,6 +1261,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,11 +1586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E091E8B2-1B7E-40D3-8DF0-AE21AE3A77B8}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" customWidth="1"/>
@@ -869,7 +1599,7 @@
     <col min="6" max="6" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6">
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
       <c r="D1" s="19" t="s">
@@ -878,7 +1608,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" s="1" customFormat="1">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1620,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -902,7 +1632,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -914,7 +1644,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -926,14 +1656,14 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" s="1" customFormat="1">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" s="1" customFormat="1">
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
@@ -944,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
@@ -955,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
@@ -977,7 +1707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
@@ -988,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
@@ -1010,7 +1740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
         <v>19</v>
       </c>
@@ -1021,17 +1751,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="31"/>
       <c r="C16" s="16"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="B17" s="31"/>
       <c r="C17" s="16"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="37" t="s">
@@ -1043,7 +1773,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1791,7 @@
       <c r="G19" s="30"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="40" t="s">
         <v>26</v>
       </c>
@@ -1083,7 +1813,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="33"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1093,7 +1823,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="40" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1835,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="33"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -1115,7 +1845,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1867,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="33"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -1147,7 +1877,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="33"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1157,7 +1887,7 @@
       <c r="G26" s="30"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="33"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1167,7 +1897,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="33"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -1177,7 +1907,7 @@
       <c r="G28" s="30"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1195,7 +1925,7 @@
       <c r="G29" s="30"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1213,7 +1943,7 @@
       <c r="G30" s="30"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1231,7 +1961,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -1249,7 +1979,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1263,7 +1993,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34" s="33"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -1277,7 +2007,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35" s="33"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -1291,7 +2021,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1305,7 +2035,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8">
       <c r="A37" s="10"/>
       <c r="B37" s="31"/>
       <c r="C37" s="30"/>
@@ -1315,7 +2045,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38" s="10"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -1325,7 +2055,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -1341,7 +2071,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +2087,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41" s="33" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +2103,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42" s="33" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +2119,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43" s="33" t="s">
         <v>46</v>
       </c>
@@ -1405,7 +2135,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="42"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44" s="33" t="s">
         <v>62</v>
       </c>
@@ -1421,7 +2151,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" s="33" t="s">
         <v>63</v>
       </c>
@@ -1437,7 +2167,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="34" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +2183,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47" s="34"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -1472,11 +2202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622CEE9B-FE1F-4D91-94F3-683A4C88F7A5}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" customWidth="1"/>
@@ -1485,16 +2215,16 @@
     <col min="6" max="6" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="27"/>
+      <c r="C1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="3"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +2236,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +2248,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +2260,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1542,14 +2272,14 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" s="1" customFormat="1">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" s="1" customFormat="1">
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +2290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +2312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +2323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
@@ -1604,7 +2334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +2345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +2356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
         <v>19</v>
       </c>
@@ -1637,17 +2367,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="31"/>
       <c r="C16" s="16"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="B17" s="31"/>
       <c r="C17" s="16"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="37" t="s">
@@ -1659,7 +2389,7 @@
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +2407,7 @@
       <c r="G19" s="30"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="40" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +2429,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="33"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1709,7 +2439,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="40" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +2451,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="33"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -1731,7 +2461,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="40" t="s">
         <v>32</v>
       </c>
@@ -1753,7 +2483,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="33"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -1763,7 +2493,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="33"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1773,7 +2503,7 @@
       <c r="G26" s="30"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="33"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1783,7 +2513,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="33"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -1793,7 +2523,7 @@
       <c r="G28" s="30"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1811,7 +2541,7 @@
       <c r="G29" s="30"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1829,7 +2559,7 @@
       <c r="G30" s="30"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1847,7 +2577,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -1865,7 +2595,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1879,7 +2609,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34" s="33"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -1893,7 +2623,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35" s="33"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -1907,7 +2637,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1921,7 +2651,7 @@
       <c r="G36" s="16"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8">
       <c r="A37" s="10"/>
       <c r="B37" s="31"/>
       <c r="C37" s="30"/>
@@ -1931,7 +2661,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38" s="10"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -1941,7 +2671,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +2687,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +2703,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41" s="33" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +2719,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42" s="33" t="s">
         <v>44</v>
       </c>
@@ -2005,7 +2735,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43" s="33" t="s">
         <v>46</v>
       </c>
@@ -2021,7 +2751,7 @@
       <c r="G43" s="16"/>
       <c r="H43" s="42"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44" s="33" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2767,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" s="33" t="s">
         <v>63</v>
       </c>
@@ -2053,7 +2783,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="34" t="s">
         <v>64</v>
       </c>
@@ -2069,7 +2799,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47" s="34"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -2082,4 +2812,4325 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AB6DC3-C6D0-4568-908D-F20A8986040D}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2"/>
+      <c r="C1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1">
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>128</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16">
+        <v>254</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="16">
+        <v>255</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="17">
+        <v>256</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="31"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="31"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="33"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="41">
+        <v>46174</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="33"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="33"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="12">
+        <v>5</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="12">
+        <v>6</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="42"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="12">
+        <v>5</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="42"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="12">
+        <v>6</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="6">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="33"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="33"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="34"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C5DF1-5DCB-4932-962C-ED97F7D64034}">
+  <dimension ref="B1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I44" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="41">
+        <v>46174</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="12">
+        <v>5</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="12">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="G19" s="4"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="6">
+        <v>7</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="G20" s="10"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="G21" s="10"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="G22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="G23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="G24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="G25" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="G26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="G27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="G28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="G29" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="G30" s="34"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA63D14-45CC-4A7E-8543-2CCD36A9F825}">
+  <dimension ref="B1:N37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M30" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="41">
+        <v>46174</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="16">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="17">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="31"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="30"/>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="31"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="30"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="12">
+        <v>5</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="12">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="24"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="6">
+        <v>8</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="16">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="16">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="16">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="16">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="16">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="17">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="31"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="31"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="30"/>
+      <c r="G28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="G29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="16">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="16">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="16">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="16">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="16">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="16">
+        <v>25</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="17">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E75DCE-3549-44FC-BA91-F2DD58616AC9}">
+  <dimension ref="B1:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G45" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>120</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="41">
+        <v>46174</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="G12" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="16">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="16">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="16">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="31"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="30"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="50">
+        <v>5</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="31"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="30"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="50">
+        <v>6</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="16">
+        <v>7</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50">
+        <v>8</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="50">
+        <v>9</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="50">
+        <v>10</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="50">
+        <v>11</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="24"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="50">
+        <v>12</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="16">
+        <v>119</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="16">
+        <v>120</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="17">
+        <v>121</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="G28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="G29" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="G30" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="G31" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="G32" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB488F67-FBA8-4C3F-99B6-4C1E3FFC15C7}">
+  <dimension ref="B1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>30</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="41">
+        <v>46174</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="G12" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="16">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="16">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="31"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="16">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="31"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="30"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="50">
+        <v>5</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="31"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="30"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="50">
+        <v>6</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="16">
+        <v>7</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="16">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="16">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="24"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="16">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="16">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="30"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="17">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="G28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="G29" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="16">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="17">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="31"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="31"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="31"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="31"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="31"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF382D49-6A42-4430-9041-3ACA4A7F6B33}">
+  <dimension ref="B1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="41">
+        <v>46174</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="17">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="31"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="30"/>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="31"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="30"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="12">
+        <v>5</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="12">
+        <v>6</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="42"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="24"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="4">
+        <v>8</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="12">
+        <v>9</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="12">
+        <v>10</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="61">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" s="50"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="16">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" t="s">
+        <v>286</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="16">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="17">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="31"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="30"/>
+      <c r="G27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" t="s">
+        <v>287</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="31"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="30"/>
+      <c r="G28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="G29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="16">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="16">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="16">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="16">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="16">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="17">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>